--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1427023333333333</v>
+        <v>0.4230099999999999</v>
       </c>
       <c r="H2">
-        <v>0.428107</v>
+        <v>1.26903</v>
       </c>
       <c r="I2">
-        <v>0.1273079012129441</v>
+        <v>0.2644575019130516</v>
       </c>
       <c r="J2">
-        <v>0.1321569978471202</v>
+        <v>0.2693500285368441</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9664256666666665</v>
+        <v>0.261144</v>
       </c>
       <c r="N2">
-        <v>2.899277</v>
+        <v>0.783432</v>
       </c>
       <c r="O2">
-        <v>0.01250693652915324</v>
+        <v>0.003271061522682287</v>
       </c>
       <c r="P2">
-        <v>0.01251792220116773</v>
+        <v>0.003273098812417099</v>
       </c>
       <c r="Q2">
-        <v>0.1379111976265555</v>
+        <v>0.11046652344</v>
       </c>
       <c r="R2">
-        <v>1.241200778639</v>
+        <v>0.9941987109599999</v>
       </c>
       <c r="S2">
-        <v>0.001592231840130002</v>
+        <v>0.0008650567588924604</v>
       </c>
       <c r="T2">
-        <v>0.001654331017390141</v>
+        <v>0.0008816092585284563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1427023333333333</v>
+        <v>0.4230099999999999</v>
       </c>
       <c r="H3">
-        <v>0.428107</v>
+        <v>1.26903</v>
       </c>
       <c r="I3">
-        <v>0.1273079012129441</v>
+        <v>0.2644575019130516</v>
       </c>
       <c r="J3">
-        <v>0.1321569978471202</v>
+        <v>0.2693500285368441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.05738933333333</v>
+        <v>0.9664256666666667</v>
       </c>
       <c r="N3">
-        <v>99.172168</v>
+        <v>2.899277</v>
       </c>
       <c r="O3">
-        <v>0.4278101094288411</v>
+        <v>0.01210534346094841</v>
       </c>
       <c r="P3">
-        <v>0.4281858834271908</v>
+        <v>0.01211288293759791</v>
       </c>
       <c r="Q3">
-        <v>4.717366591775111</v>
+        <v>0.4088077212566666</v>
       </c>
       <c r="R3">
-        <v>42.456299325976</v>
+        <v>3.67926949131</v>
       </c>
       <c r="S3">
-        <v>0.05446360714906568</v>
+        <v>0.00320134889148191</v>
       </c>
       <c r="T3">
-        <v>0.05658776087425452</v>
+        <v>0.003262605364905451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1427023333333333</v>
+        <v>0.4230099999999999</v>
       </c>
       <c r="H4">
-        <v>0.428107</v>
+        <v>1.26903</v>
       </c>
       <c r="I4">
-        <v>0.1273079012129441</v>
+        <v>0.2644575019130516</v>
       </c>
       <c r="J4">
-        <v>0.1321569978471202</v>
+        <v>0.2693500285368441</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2034385</v>
+        <v>53.56571566666666</v>
       </c>
       <c r="N4">
-        <v>0.406877</v>
+        <v>160.697147</v>
       </c>
       <c r="O4">
-        <v>0.002632786457195509</v>
+        <v>0.6709583656992811</v>
       </c>
       <c r="P4">
-        <v>0.001756732672126368</v>
+        <v>0.671376253464903</v>
       </c>
       <c r="Q4">
-        <v>0.02903114863983333</v>
+        <v>22.65883338415666</v>
       </c>
       <c r="R4">
-        <v>0.174186891839</v>
+        <v>203.9295004574099</v>
       </c>
       <c r="S4">
-        <v>0.0003351745182074228</v>
+        <v>0.1774399732804956</v>
       </c>
       <c r="T4">
-        <v>0.0002321645159681702</v>
+        <v>0.1808352130297311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1427023333333333</v>
+        <v>0.4230099999999999</v>
       </c>
       <c r="H5">
-        <v>0.428107</v>
+        <v>1.26903</v>
       </c>
       <c r="I5">
-        <v>0.1273079012129441</v>
+        <v>0.2644575019130516</v>
       </c>
       <c r="J5">
-        <v>0.1321569978471202</v>
+        <v>0.2693500285368441</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>43.04392033333334</v>
+        <v>0.1490755</v>
       </c>
       <c r="N5">
-        <v>129.131761</v>
+        <v>0.298151</v>
       </c>
       <c r="O5">
-        <v>0.5570501675848103</v>
+        <v>0.001867303602704344</v>
       </c>
       <c r="P5">
-        <v>0.5575394616995151</v>
+        <v>0.001245644400561849</v>
       </c>
       <c r="Q5">
-        <v>6.142467867380778</v>
+        <v>0.063060427255</v>
       </c>
       <c r="R5">
-        <v>55.282210806427</v>
+        <v>0.37836256353</v>
       </c>
       <c r="S5">
-        <v>0.07091688770554096</v>
+        <v>0.0004938224460844322</v>
       </c>
       <c r="T5">
-        <v>0.07368274143950737</v>
+        <v>0.0003355143548380942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.484631</v>
+        <v>0.4230099999999999</v>
       </c>
       <c r="H6">
-        <v>1.453893</v>
+        <v>1.26903</v>
       </c>
       <c r="I6">
-        <v>0.4323500116050213</v>
+        <v>0.2644575019130516</v>
       </c>
       <c r="J6">
-        <v>0.4488180152881012</v>
+        <v>0.2693500285368441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9664256666666665</v>
+        <v>24.89227333333333</v>
       </c>
       <c r="N6">
-        <v>2.899277</v>
+        <v>74.67681999999999</v>
       </c>
       <c r="O6">
-        <v>0.01250693652915324</v>
+        <v>0.3117979257143837</v>
       </c>
       <c r="P6">
-        <v>0.01251792220116773</v>
+        <v>0.3119921203845202</v>
       </c>
       <c r="Q6">
-        <v>0.4683598372623333</v>
+        <v>10.52968054273333</v>
       </c>
       <c r="R6">
-        <v>4.215238535360999</v>
+        <v>94.76712488459998</v>
       </c>
       <c r="S6">
-        <v>0.005407374153522667</v>
+        <v>0.08245730053609714</v>
       </c>
       <c r="T6">
-        <v>0.005618268997858957</v>
+        <v>0.08403508652884104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>1.453893</v>
       </c>
       <c r="I7">
-        <v>0.4323500116050213</v>
+        <v>0.3029817347335148</v>
       </c>
       <c r="J7">
-        <v>0.4488180152881012</v>
+        <v>0.3085869688183242</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>33.05738933333333</v>
+        <v>0.261144</v>
       </c>
       <c r="N7">
-        <v>99.172168</v>
+        <v>0.783432</v>
       </c>
       <c r="O7">
-        <v>0.4278101094288411</v>
+        <v>0.003271061522682287</v>
       </c>
       <c r="P7">
-        <v>0.4281858834271908</v>
+        <v>0.003273098812417099</v>
       </c>
       <c r="Q7">
-        <v>16.02063565000267</v>
+        <v>0.126558477864</v>
       </c>
       <c r="R7">
-        <v>144.185720850024</v>
+        <v>1.139026300776</v>
       </c>
       <c r="S7">
-        <v>0.1849637057763049</v>
+        <v>0.0009910718945623318</v>
       </c>
       <c r="T7">
-        <v>0.192177538374174</v>
+        <v>0.001010035641166649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>1.453893</v>
       </c>
       <c r="I8">
-        <v>0.4323500116050213</v>
+        <v>0.3029817347335148</v>
       </c>
       <c r="J8">
-        <v>0.4488180152881012</v>
+        <v>0.3085869688183242</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2034385</v>
+        <v>0.9664256666666667</v>
       </c>
       <c r="N8">
-        <v>0.406877</v>
+        <v>2.899277</v>
       </c>
       <c r="O8">
-        <v>0.002632786457195509</v>
+        <v>0.01210534346094841</v>
       </c>
       <c r="P8">
-        <v>0.001756732672126368</v>
+        <v>0.01211288293759791</v>
       </c>
       <c r="Q8">
-        <v>0.09859260369349999</v>
+        <v>0.4683598372623333</v>
       </c>
       <c r="R8">
-        <v>0.5915556221609999</v>
+        <v>4.215238535361</v>
       </c>
       <c r="S8">
-        <v>0.001138285255322021</v>
+        <v>0.003667697961343159</v>
       </c>
       <c r="T8">
-        <v>0.0007884532712955193</v>
+        <v>0.003737877829364539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1.453893</v>
       </c>
       <c r="I9">
-        <v>0.4323500116050213</v>
+        <v>0.3029817347335148</v>
       </c>
       <c r="J9">
-        <v>0.4488180152881012</v>
+        <v>0.3085869688183242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.04392033333334</v>
+        <v>53.56571566666666</v>
       </c>
       <c r="N9">
-        <v>129.131761</v>
+        <v>160.697147</v>
       </c>
       <c r="O9">
-        <v>0.5570501675848103</v>
+        <v>0.6709583656992811</v>
       </c>
       <c r="P9">
-        <v>0.5575394616995151</v>
+        <v>0.671376253464903</v>
       </c>
       <c r="Q9">
-        <v>20.86041815506367</v>
+        <v>25.95960634925233</v>
       </c>
       <c r="R9">
-        <v>187.743763395573</v>
+        <v>233.6364571432709</v>
       </c>
       <c r="S9">
-        <v>0.2408406464198718</v>
+        <v>0.2032881295735322</v>
       </c>
       <c r="T9">
-        <v>0.2502337546447727</v>
+        <v>0.2071779629933374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357438</v>
+        <v>0.484631</v>
       </c>
       <c r="H10">
-        <v>1.072314</v>
+        <v>1.453893</v>
       </c>
       <c r="I10">
-        <v>0.3188783289720955</v>
+        <v>0.3029817347335148</v>
       </c>
       <c r="J10">
-        <v>0.331024250921935</v>
+        <v>0.3085869688183242</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.9664256666666665</v>
+        <v>0.1490755</v>
       </c>
       <c r="N10">
-        <v>2.899277</v>
+        <v>0.298151</v>
       </c>
       <c r="O10">
-        <v>0.01250693652915324</v>
+        <v>0.001867303602704344</v>
       </c>
       <c r="P10">
-        <v>0.01251792220116773</v>
+        <v>0.001245644400561849</v>
       </c>
       <c r="Q10">
-        <v>0.3454372574419999</v>
+        <v>0.07224660864049999</v>
       </c>
       <c r="R10">
-        <v>3.108935316978</v>
+        <v>0.433479651843</v>
       </c>
       <c r="S10">
-        <v>0.003988191020976445</v>
+        <v>0.0005657588848215042</v>
       </c>
       <c r="T10">
-        <v>0.004143735819740607</v>
+        <v>0.0003843896297948995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.357438</v>
+        <v>0.484631</v>
       </c>
       <c r="H11">
-        <v>1.072314</v>
+        <v>1.453893</v>
       </c>
       <c r="I11">
-        <v>0.3188783289720955</v>
+        <v>0.3029817347335148</v>
       </c>
       <c r="J11">
-        <v>0.331024250921935</v>
+        <v>0.3085869688183242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.05738933333333</v>
+        <v>24.89227333333333</v>
       </c>
       <c r="N11">
-        <v>99.172168</v>
+        <v>74.67681999999999</v>
       </c>
       <c r="O11">
-        <v>0.4278101094288411</v>
+        <v>0.3117979257143837</v>
       </c>
       <c r="P11">
-        <v>0.4281858834271908</v>
+        <v>0.3119921203845202</v>
       </c>
       <c r="Q11">
-        <v>11.815967128528</v>
+        <v>12.06356731780667</v>
       </c>
       <c r="R11">
-        <v>106.343704156752</v>
+        <v>108.57210586026</v>
       </c>
       <c r="S11">
-        <v>0.1364193728120382</v>
+        <v>0.09446907641925556</v>
       </c>
       <c r="T11">
-        <v>0.1417399113168328</v>
+        <v>0.0962767027246608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.357438</v>
+        <v>0.2827016666666667</v>
       </c>
       <c r="H12">
-        <v>1.072314</v>
+        <v>0.848105</v>
       </c>
       <c r="I12">
-        <v>0.3188783289720955</v>
+        <v>0.1767395015562821</v>
       </c>
       <c r="J12">
-        <v>0.331024250921935</v>
+        <v>0.1800092243305834</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2034385</v>
+        <v>0.261144</v>
       </c>
       <c r="N12">
-        <v>0.406877</v>
+        <v>0.783432</v>
       </c>
       <c r="O12">
-        <v>0.002632786457195509</v>
+        <v>0.003271061522682287</v>
       </c>
       <c r="P12">
-        <v>0.001756732672126368</v>
+        <v>0.003273098812417099</v>
       </c>
       <c r="Q12">
-        <v>0.07271665056299999</v>
+        <v>0.07382584404</v>
       </c>
       <c r="R12">
-        <v>0.436299903378</v>
+        <v>0.66443259636</v>
       </c>
       <c r="S12">
-        <v>0.0008395385460108674</v>
+        <v>0.0005781257830788005</v>
       </c>
       <c r="T12">
-        <v>0.0005815211168607204</v>
+        <v>0.0005891879783805557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.357438</v>
+        <v>0.2827016666666667</v>
       </c>
       <c r="H13">
-        <v>1.072314</v>
+        <v>0.848105</v>
       </c>
       <c r="I13">
-        <v>0.3188783289720955</v>
+        <v>0.1767395015562821</v>
       </c>
       <c r="J13">
-        <v>0.331024250921935</v>
+        <v>0.1800092243305834</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.04392033333334</v>
+        <v>0.9664256666666667</v>
       </c>
       <c r="N13">
-        <v>129.131761</v>
+        <v>2.899277</v>
       </c>
       <c r="O13">
-        <v>0.5570501675848103</v>
+        <v>0.01210534346094841</v>
       </c>
       <c r="P13">
-        <v>0.5575394616995151</v>
+        <v>0.01211288293759791</v>
       </c>
       <c r="Q13">
-        <v>15.385532796106</v>
+        <v>0.2732101466761112</v>
       </c>
       <c r="R13">
-        <v>138.469795164954</v>
+        <v>2.458891320085</v>
       </c>
       <c r="S13">
-        <v>0.1776312265930701</v>
+        <v>0.00213949236945562</v>
       </c>
       <c r="T13">
-        <v>0.1845590826685009</v>
+        <v>0.002180430662004159</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1233865</v>
+        <v>0.2827016666666667</v>
       </c>
       <c r="H14">
-        <v>0.246773</v>
+        <v>0.848105</v>
       </c>
       <c r="I14">
-        <v>0.1100758199679817</v>
+        <v>0.1767395015562821</v>
       </c>
       <c r="J14">
-        <v>0.07617903661871306</v>
+        <v>0.1800092243305834</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,95 +1302,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9664256666666665</v>
+        <v>53.56571566666666</v>
       </c>
       <c r="N14">
-        <v>2.899277</v>
+        <v>160.697147</v>
       </c>
       <c r="O14">
-        <v>0.01250693652915324</v>
+        <v>0.6709583656992811</v>
       </c>
       <c r="P14">
-        <v>0.01251792220116773</v>
+        <v>0.671376253464903</v>
       </c>
       <c r="Q14">
-        <v>0.1192438805201666</v>
+        <v>15.14311709515944</v>
       </c>
       <c r="R14">
-        <v>0.7154632831209999</v>
+        <v>136.288053856435</v>
       </c>
       <c r="S14">
-        <v>0.001376711293734046</v>
+        <v>0.1185848471187086</v>
       </c>
       <c r="T14">
-        <v>0.0009536032537529574</v>
+        <v>0.1208539186201903</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2827016666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.848105</v>
+      </c>
+      <c r="I15">
+        <v>0.1767395015562821</v>
+      </c>
+      <c r="J15">
+        <v>0.1800092243305834</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.5</v>
       </c>
-      <c r="G15">
-        <v>0.1233865</v>
-      </c>
-      <c r="H15">
-        <v>0.246773</v>
-      </c>
-      <c r="I15">
-        <v>0.1100758199679817</v>
-      </c>
-      <c r="J15">
-        <v>0.07617903661871306</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>33.05738933333333</v>
+        <v>0.1490755</v>
       </c>
       <c r="N15">
-        <v>99.172168</v>
+        <v>0.298151</v>
       </c>
       <c r="O15">
-        <v>0.4278101094288411</v>
+        <v>0.001867303602704344</v>
       </c>
       <c r="P15">
-        <v>0.4281858834271908</v>
+        <v>0.001245644400561849</v>
       </c>
       <c r="Q15">
-        <v>4.078835568977333</v>
+        <v>0.04214389230916667</v>
       </c>
       <c r="R15">
-        <v>24.473013413864</v>
+        <v>0.252863353855</v>
       </c>
       <c r="S15">
-        <v>0.04709154858597168</v>
+        <v>0.0003300263079962156</v>
       </c>
       <c r="T15">
-        <v>0.03261878809321597</v>
+        <v>0.000224227482336873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1233865</v>
+        <v>0.2827016666666667</v>
       </c>
       <c r="H16">
-        <v>0.246773</v>
+        <v>0.848105</v>
       </c>
       <c r="I16">
-        <v>0.1100758199679817</v>
+        <v>0.1767395015562821</v>
       </c>
       <c r="J16">
-        <v>0.07617903661871306</v>
+        <v>0.1800092243305834</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2034385</v>
+        <v>24.89227333333333</v>
       </c>
       <c r="N16">
-        <v>0.406877</v>
+        <v>74.67681999999999</v>
       </c>
       <c r="O16">
-        <v>0.002632786457195509</v>
+        <v>0.3117979257143837</v>
       </c>
       <c r="P16">
-        <v>0.001756732672126368</v>
+        <v>0.3119921203845202</v>
       </c>
       <c r="Q16">
-        <v>0.02510156448025</v>
+        <v>7.037087158455556</v>
       </c>
       <c r="R16">
-        <v>0.100406257921</v>
+        <v>63.3337844261</v>
       </c>
       <c r="S16">
-        <v>0.0002898061280763933</v>
+        <v>0.05510700997704284</v>
       </c>
       <c r="T16">
-        <v>0.0001338262025592043</v>
+        <v>0.05616145958767148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1470,51 +1470,51 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.1233865</v>
+        <v>0.087163</v>
       </c>
       <c r="H17">
-        <v>0.246773</v>
+        <v>0.174326</v>
       </c>
       <c r="I17">
-        <v>0.1100758199679817</v>
+        <v>0.0544925870292601</v>
       </c>
       <c r="J17">
-        <v>0.07617903661871306</v>
+        <v>0.03700047522494653</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>43.04392033333334</v>
+        <v>0.261144</v>
       </c>
       <c r="N17">
-        <v>129.131761</v>
+        <v>0.783432</v>
       </c>
       <c r="O17">
-        <v>0.5570501675848103</v>
+        <v>0.003271061522682287</v>
       </c>
       <c r="P17">
-        <v>0.5575394616995151</v>
+        <v>0.003273098812417099</v>
       </c>
       <c r="Q17">
-        <v>5.311038676208834</v>
+        <v>0.022762094472</v>
       </c>
       <c r="R17">
-        <v>31.866232057253</v>
+        <v>0.136572566832</v>
       </c>
       <c r="S17">
-        <v>0.06131775396019964</v>
+        <v>0.0001782486047028286</v>
       </c>
       <c r="T17">
-        <v>0.04247281906918492</v>
+        <v>0.0001211062115176408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1529,19 +1529,19 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.012765</v>
+        <v>0.087163</v>
       </c>
       <c r="H18">
-        <v>0.038295</v>
+        <v>0.174326</v>
       </c>
       <c r="I18">
-        <v>0.01138793824195748</v>
+        <v>0.0544925870292601</v>
       </c>
       <c r="J18">
-        <v>0.01182169932413034</v>
+        <v>0.03700047522494653</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9664256666666665</v>
+        <v>0.9664256666666667</v>
       </c>
       <c r="N18">
         <v>2.899277</v>
       </c>
       <c r="O18">
-        <v>0.01250693652915324</v>
+        <v>0.01210534346094841</v>
       </c>
       <c r="P18">
-        <v>0.01251792220116773</v>
+        <v>0.01211288293759791</v>
       </c>
       <c r="Q18">
-        <v>0.012336423635</v>
+        <v>0.08423656038366668</v>
       </c>
       <c r="R18">
-        <v>0.111027812715</v>
+        <v>0.505419362302</v>
       </c>
       <c r="S18">
-        <v>0.0001424282207900791</v>
+        <v>0.0006596514820648158</v>
       </c>
       <c r="T18">
-        <v>0.0001479831124250607</v>
+        <v>0.0004481824250352692</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1591,19 +1591,19 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.012765</v>
+        <v>0.087163</v>
       </c>
       <c r="H19">
-        <v>0.038295</v>
+        <v>0.174326</v>
       </c>
       <c r="I19">
-        <v>0.01138793824195748</v>
+        <v>0.0544925870292601</v>
       </c>
       <c r="J19">
-        <v>0.01182169932413034</v>
+        <v>0.03700047522494653</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.05738933333333</v>
+        <v>53.56571566666666</v>
       </c>
       <c r="N19">
-        <v>99.172168</v>
+        <v>160.697147</v>
       </c>
       <c r="O19">
-        <v>0.4278101094288411</v>
+        <v>0.6709583656992811</v>
       </c>
       <c r="P19">
-        <v>0.4281858834271908</v>
+        <v>0.671376253464903</v>
       </c>
       <c r="Q19">
-        <v>0.4219775748399999</v>
+        <v>4.668948474653666</v>
       </c>
       <c r="R19">
-        <v>3.797798173559999</v>
+        <v>28.013690847922</v>
       </c>
       <c r="S19">
-        <v>0.004871875105460714</v>
+        <v>0.03656225713587821</v>
       </c>
       <c r="T19">
-        <v>0.005061884768713374</v>
+        <v>0.02484124043294557</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1653,19 +1653,19 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.012765</v>
+        <v>0.087163</v>
       </c>
       <c r="H20">
-        <v>0.038295</v>
+        <v>0.174326</v>
       </c>
       <c r="I20">
-        <v>0.01138793824195748</v>
+        <v>0.0544925870292601</v>
       </c>
       <c r="J20">
-        <v>0.01182169932413034</v>
+        <v>0.03700047522494653</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.2034385</v>
+        <v>0.1490755</v>
       </c>
       <c r="N20">
-        <v>0.406877</v>
+        <v>0.298151</v>
       </c>
       <c r="O20">
-        <v>0.002632786457195509</v>
+        <v>0.001867303602704344</v>
       </c>
       <c r="P20">
-        <v>0.001756732672126368</v>
+        <v>0.001245644400561849</v>
       </c>
       <c r="Q20">
-        <v>0.0025968924525</v>
+        <v>0.0129938678065</v>
       </c>
       <c r="R20">
-        <v>0.015581354715</v>
+        <v>0.05197547122600001</v>
       </c>
       <c r="S20">
-        <v>2.998200957880449E-05</v>
+        <v>0.0001017542040804174</v>
       </c>
       <c r="T20">
-        <v>2.076756544275398E-05</v>
+        <v>4.608943478208207E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1715,49 +1715,359 @@
         <v>1</v>
       </c>
       <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.087163</v>
+      </c>
+      <c r="H21">
+        <v>0.174326</v>
+      </c>
+      <c r="I21">
+        <v>0.0544925870292601</v>
+      </c>
+      <c r="J21">
+        <v>0.03700047522494653</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.89227333333333</v>
+      </c>
+      <c r="N21">
+        <v>74.67681999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.3117979257143837</v>
+      </c>
+      <c r="P21">
+        <v>0.3119921203845202</v>
+      </c>
+      <c r="Q21">
+        <v>2.169685220553333</v>
+      </c>
+      <c r="R21">
+        <v>13.01811132332</v>
+      </c>
+      <c r="S21">
+        <v>0.01699067560253383</v>
+      </c>
+      <c r="T21">
+        <v>0.01154385672066598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.322033</v>
+      </c>
+      <c r="H22">
+        <v>0.966099</v>
+      </c>
+      <c r="I22">
+        <v>0.2013286747678914</v>
+      </c>
+      <c r="J22">
+        <v>0.2050533030893018</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.012765</v>
-      </c>
-      <c r="H21">
-        <v>0.038295</v>
-      </c>
-      <c r="I21">
-        <v>0.01138793824195748</v>
-      </c>
-      <c r="J21">
-        <v>0.01182169932413034</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>43.04392033333334</v>
-      </c>
-      <c r="N21">
-        <v>129.131761</v>
-      </c>
-      <c r="O21">
-        <v>0.5570501675848103</v>
-      </c>
-      <c r="P21">
-        <v>0.5575394616995151</v>
-      </c>
-      <c r="Q21">
-        <v>0.5494556430550001</v>
-      </c>
-      <c r="R21">
-        <v>4.945100787495</v>
-      </c>
-      <c r="S21">
-        <v>0.006343652906127885</v>
-      </c>
-      <c r="T21">
-        <v>0.006591063877549151</v>
+      <c r="M22">
+        <v>0.261144</v>
+      </c>
+      <c r="N22">
+        <v>0.783432</v>
+      </c>
+      <c r="O22">
+        <v>0.003271061522682287</v>
+      </c>
+      <c r="P22">
+        <v>0.003273098812417099</v>
+      </c>
+      <c r="Q22">
+        <v>0.084096985752</v>
+      </c>
+      <c r="R22">
+        <v>0.756872871768</v>
+      </c>
+      <c r="S22">
+        <v>0.0006585584814458659</v>
+      </c>
+      <c r="T22">
+        <v>0.0006711597228237972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.322033</v>
+      </c>
+      <c r="H23">
+        <v>0.966099</v>
+      </c>
+      <c r="I23">
+        <v>0.2013286747678914</v>
+      </c>
+      <c r="J23">
+        <v>0.2050533030893018</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9664256666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.899277</v>
+      </c>
+      <c r="O23">
+        <v>0.01210534346094841</v>
+      </c>
+      <c r="P23">
+        <v>0.01211288293759791</v>
+      </c>
+      <c r="Q23">
+        <v>0.3112209567136667</v>
+      </c>
+      <c r="R23">
+        <v>2.800988610423</v>
+      </c>
+      <c r="S23">
+        <v>0.002437152756602903</v>
+      </c>
+      <c r="T23">
+        <v>0.002483786656288497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.322033</v>
+      </c>
+      <c r="H24">
+        <v>0.966099</v>
+      </c>
+      <c r="I24">
+        <v>0.2013286747678914</v>
+      </c>
+      <c r="J24">
+        <v>0.2050533030893018</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>53.56571566666666</v>
+      </c>
+      <c r="N24">
+        <v>160.697147</v>
+      </c>
+      <c r="O24">
+        <v>0.6709583656992811</v>
+      </c>
+      <c r="P24">
+        <v>0.671376253464903</v>
+      </c>
+      <c r="Q24">
+        <v>17.24992811328366</v>
+      </c>
+      <c r="R24">
+        <v>155.249353019553</v>
+      </c>
+      <c r="S24">
+        <v>0.1350831585906665</v>
+      </c>
+      <c r="T24">
+        <v>0.1376679183886987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.322033</v>
+      </c>
+      <c r="H25">
+        <v>0.966099</v>
+      </c>
+      <c r="I25">
+        <v>0.2013286747678914</v>
+      </c>
+      <c r="J25">
+        <v>0.2050533030893018</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.1490755</v>
+      </c>
+      <c r="N25">
+        <v>0.298151</v>
+      </c>
+      <c r="O25">
+        <v>0.001867303602704344</v>
+      </c>
+      <c r="P25">
+        <v>0.001245644400561849</v>
+      </c>
+      <c r="Q25">
+        <v>0.04800723049150001</v>
+      </c>
+      <c r="R25">
+        <v>0.288043382949</v>
+      </c>
+      <c r="S25">
+        <v>0.0003759417597217749</v>
+      </c>
+      <c r="T25">
+        <v>0.0002554234988099005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.322033</v>
+      </c>
+      <c r="H26">
+        <v>0.966099</v>
+      </c>
+      <c r="I26">
+        <v>0.2013286747678914</v>
+      </c>
+      <c r="J26">
+        <v>0.2050533030893018</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.89227333333333</v>
+      </c>
+      <c r="N26">
+        <v>74.67681999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.3117979257143837</v>
+      </c>
+      <c r="P26">
+        <v>0.3119921203845202</v>
+      </c>
+      <c r="Q26">
+        <v>8.016133458353334</v>
+      </c>
+      <c r="R26">
+        <v>72.14520112517999</v>
+      </c>
+      <c r="S26">
+        <v>0.06277386317945433</v>
+      </c>
+      <c r="T26">
+        <v>0.06397501482268096</v>
       </c>
     </row>
   </sheetData>
